--- a/medicine/Psychotrope/Bralima/Bralima.xlsx
+++ b/medicine/Psychotrope/Bralima/Bralima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Bralima (acronyme de Brasseries, Limonaderies et Malteries), anciennement connue sous le nom de « Brasserie de Léopoldville »[1] ou « Brasserie Léo »[2], est une entreprise brassicole établie à Kinshasa, en République démocratique du Congo. Bralima est aujourd'hui une filiale de Heineken et possède des unités de production, outre Kinshasa, dans les villes de  Bukavu, Kisangani, Boma, Mbandaka et Lubumbashi. Ses produits sont distribués dans l'ensemble du pays.
+Bralima (acronyme de Brasseries, Limonaderies et Malteries), anciennement connue sous le nom de « Brasserie de Léopoldville » ou « Brasserie Léo », est une entreprise brassicole établie à Kinshasa, en République démocratique du Congo. Bralima est aujourd'hui une filiale de Heineken et possède des unités de production, outre Kinshasa, dans les villes de  Bukavu, Kisangani, Boma, Mbandaka et Lubumbashi. Ses produits sont distribués dans l'ensemble du pays.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bières:
 la Primus, bière blonde titrant à 5 % et produite dès 1926 en bouteilles de 72 centilitres. Produit phare de la Bralima. Connue par ailleurs pour avoir été associée en publicité à une chanson de JB Mpiana : « Pelisa ngwasuma » (pouvant imparfaitement être traduite par « allumez le feu » ou dans un sens beaucoup plus kinois par « Démarreur d'ambiance ») ;
